--- a/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_80.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_4_percent_water_80.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.949760578011</v>
+        <v>89.78771037800219</v>
       </c>
       <c r="D2" t="n">
-        <v>1.433426377377448</v>
+        <v>1.696998395818164</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>89.03359532840101</v>
+        <v>88.79182230938973</v>
       </c>
       <c r="D3" t="n">
-        <v>1.639025779854356</v>
+        <v>1.509287442528464</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.92496359918523</v>
+        <v>88.01240082667144</v>
       </c>
       <c r="D4" t="n">
-        <v>1.427045757074398</v>
+        <v>1.512641560151624</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.9231231812678</v>
+        <v>86.87293527236923</v>
       </c>
       <c r="D5" t="n">
-        <v>1.543215346766415</v>
+        <v>1.679808315880729</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.85452617772353</v>
+        <v>85.95289737801394</v>
       </c>
       <c r="D6" t="n">
-        <v>1.420411556134132</v>
+        <v>1.581728909591649</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.89093408367361</v>
+        <v>85.12670141994026</v>
       </c>
       <c r="D7" t="n">
-        <v>1.686733581130511</v>
+        <v>1.479893248570105</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>84.0539684360367</v>
+        <v>84.08047517399228</v>
       </c>
       <c r="D8" t="n">
-        <v>1.517295193256787</v>
+        <v>1.703805349048025</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.22290834854226</v>
+        <v>83.22100503381839</v>
       </c>
       <c r="D9" t="n">
-        <v>1.525417605455872</v>
+        <v>1.741762423250908</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.0094293694401</v>
+        <v>82.11945342350678</v>
       </c>
       <c r="D10" t="n">
-        <v>1.632655422939218</v>
+        <v>1.712141421725301</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.06573103562262</v>
+        <v>80.76497343963098</v>
       </c>
       <c r="D11" t="n">
-        <v>1.690493336850049</v>
+        <v>1.464689774205977</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.08490881631609</v>
+        <v>80.1422693283466</v>
       </c>
       <c r="D12" t="n">
-        <v>1.668716517225941</v>
+        <v>1.482112849620247</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.0226906413077</v>
+        <v>78.81156666580458</v>
       </c>
       <c r="D13" t="n">
-        <v>1.611726169535595</v>
+        <v>1.413323288169936</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.88180386796965</v>
+        <v>77.96186504804375</v>
       </c>
       <c r="D14" t="n">
-        <v>1.411400999043436</v>
+        <v>1.549827941972672</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.91523532264401</v>
+        <v>77.04505388736611</v>
       </c>
       <c r="D15" t="n">
-        <v>1.452792055490641</v>
+        <v>1.663089437912348</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.09601330145755</v>
+        <v>75.97011871372823</v>
       </c>
       <c r="D16" t="n">
-        <v>1.666413228499435</v>
+        <v>1.553945518862976</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.24101647694665</v>
+        <v>74.94532724842439</v>
       </c>
       <c r="D17" t="n">
-        <v>1.622322988263544</v>
+        <v>1.826236433720265</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.28067308026638</v>
+        <v>74.12659232995782</v>
       </c>
       <c r="D18" t="n">
-        <v>1.397400180293629</v>
+        <v>1.604833011997686</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.7465234453402</v>
+        <v>72.81672638297105</v>
       </c>
       <c r="D19" t="n">
-        <v>1.563773679592131</v>
+        <v>1.637384958077416</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.1111840058979</v>
+        <v>72.07749491229852</v>
       </c>
       <c r="D20" t="n">
-        <v>1.689068245446151</v>
+        <v>1.372401043416616</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>71.11525697339489</v>
+        <v>70.9507091371762</v>
       </c>
       <c r="D21" t="n">
-        <v>1.541221363960802</v>
+        <v>1.607595746378753</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.88860755535731</v>
+        <v>69.69798979447188</v>
       </c>
       <c r="D22" t="n">
-        <v>1.66952190062753</v>
+        <v>1.726644756358072</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.97457677004108</v>
+        <v>68.84380698238419</v>
       </c>
       <c r="D23" t="n">
-        <v>1.555049530029246</v>
+        <v>1.641897872042232</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.16154522193987</v>
+        <v>67.96264969438214</v>
       </c>
       <c r="D24" t="n">
-        <v>1.585449957696296</v>
+        <v>1.665996849902225</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.80911549592631</v>
+        <v>66.66520456129597</v>
       </c>
       <c r="D25" t="n">
-        <v>1.527305706436657</v>
+        <v>1.773245624102297</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>65.85876857118116</v>
+        <v>66.07765217340673</v>
       </c>
       <c r="D26" t="n">
-        <v>1.518525285551922</v>
+        <v>1.521706552284314</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.93529193286028</v>
+        <v>64.74914751125428</v>
       </c>
       <c r="D27" t="n">
-        <v>1.497394819598136</v>
+        <v>1.421295716598834</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.79043132051408</v>
+        <v>63.71107331913065</v>
       </c>
       <c r="D28" t="n">
-        <v>1.567975391270015</v>
+        <v>1.634038293536389</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.98097432487674</v>
+        <v>63.11518084467252</v>
       </c>
       <c r="D29" t="n">
-        <v>1.54227663072</v>
+        <v>1.5685130525268</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>62.16142103711296</v>
+        <v>62.18686850831</v>
       </c>
       <c r="D30" t="n">
-        <v>1.72911533477229</v>
+        <v>1.630557622042617</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.93239919477135</v>
+        <v>60.95760505902312</v>
       </c>
       <c r="D31" t="n">
-        <v>1.75191797980636</v>
+        <v>1.435062126777415</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>60.18564960837629</v>
+        <v>59.91197512667109</v>
       </c>
       <c r="D32" t="n">
-        <v>1.590770057388823</v>
+        <v>1.763969197745347</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>58.723517788667</v>
+        <v>58.79665504382332</v>
       </c>
       <c r="D33" t="n">
-        <v>1.548472382575103</v>
+        <v>1.867749874793101</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.85630742569709</v>
+        <v>58.16624813215385</v>
       </c>
       <c r="D34" t="n">
-        <v>1.539444227334705</v>
+        <v>1.795161690045681</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.01908798640063</v>
+        <v>57.16898103437705</v>
       </c>
       <c r="D35" t="n">
-        <v>1.601406742489469</v>
+        <v>1.580062017668844</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.7345024011844</v>
+        <v>56.10446472236332</v>
       </c>
       <c r="D36" t="n">
-        <v>1.77991906040288</v>
+        <v>1.671396281945538</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>55.23055941666539</v>
+        <v>54.99429795738455</v>
       </c>
       <c r="D37" t="n">
-        <v>1.625975284424038</v>
+        <v>1.457470604042331</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.18249809599353</v>
+        <v>53.71581502834535</v>
       </c>
       <c r="D38" t="n">
-        <v>1.523069924420921</v>
+        <v>1.685922555272844</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.79249216734041</v>
+        <v>53.23894220238596</v>
       </c>
       <c r="D39" t="n">
-        <v>1.694133131704594</v>
+        <v>1.652954274586123</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.98280064952396</v>
+        <v>51.98680481487651</v>
       </c>
       <c r="D40" t="n">
-        <v>1.685049793038191</v>
+        <v>1.662503407545332</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.94493555885595</v>
+        <v>51.18055542876228</v>
       </c>
       <c r="D41" t="n">
-        <v>1.60605391956558</v>
+        <v>1.614759033436209</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>50.00906634257387</v>
+        <v>50.17676176151769</v>
       </c>
       <c r="D42" t="n">
-        <v>1.938478404118655</v>
+        <v>1.804193045870596</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.95532464977948</v>
+        <v>49.07725315857852</v>
       </c>
       <c r="D43" t="n">
-        <v>1.562428810594206</v>
+        <v>1.52735655810199</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.12270681578226</v>
+        <v>47.71970456230272</v>
       </c>
       <c r="D44" t="n">
-        <v>1.638449332021147</v>
+        <v>1.517503144669727</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.93351349481382</v>
+        <v>46.68033578453765</v>
       </c>
       <c r="D45" t="n">
-        <v>1.616340210392024</v>
+        <v>1.840321908614214</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.10974414027116</v>
+        <v>46.01645341392294</v>
       </c>
       <c r="D46" t="n">
-        <v>1.903146152393994</v>
+        <v>1.58292857739206</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.30399907883257</v>
+        <v>45.06267785626562</v>
       </c>
       <c r="D47" t="n">
-        <v>1.675804336882822</v>
+        <v>1.888174463637268</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.05763314199153</v>
+        <v>44.11292683748047</v>
       </c>
       <c r="D48" t="n">
-        <v>1.737122844212513</v>
+        <v>1.54725763360838</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.01334056440146</v>
+        <v>42.79817234702357</v>
       </c>
       <c r="D49" t="n">
-        <v>1.671793495571659</v>
+        <v>1.648078536146509</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.2997200664971</v>
+        <v>42.22566075608416</v>
       </c>
       <c r="D50" t="n">
-        <v>2.000167725317368</v>
+        <v>1.748623271812179</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.05364220232591</v>
+        <v>40.86599797545521</v>
       </c>
       <c r="D51" t="n">
-        <v>1.69326428141682</v>
+        <v>1.59411491034166</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.03290850336324</v>
+        <v>39.9934160181297</v>
       </c>
       <c r="D52" t="n">
-        <v>1.744249051376129</v>
+        <v>2.066327648716796</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.83384416552761</v>
+        <v>38.89791854531796</v>
       </c>
       <c r="D53" t="n">
-        <v>1.59720717774546</v>
+        <v>1.829446894359243</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.24425838212633</v>
+        <v>37.99918702319642</v>
       </c>
       <c r="D54" t="n">
-        <v>1.69676796710317</v>
+        <v>1.747638418767064</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.09928147244528</v>
+        <v>36.74741350937479</v>
       </c>
       <c r="D55" t="n">
-        <v>1.793816578464854</v>
+        <v>1.876893367148544</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.02136632251167</v>
+        <v>36.06358367503486</v>
       </c>
       <c r="D56" t="n">
-        <v>1.752907345773794</v>
+        <v>1.907625772085282</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.76314172822183</v>
+        <v>34.83754443634709</v>
       </c>
       <c r="D57" t="n">
-        <v>1.434172967165563</v>
+        <v>1.927456245246863</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.85317116777343</v>
+        <v>34.07602941508665</v>
       </c>
       <c r="D58" t="n">
-        <v>1.627102995067699</v>
+        <v>1.555848842672942</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.86692225818756</v>
+        <v>33.28555484508866</v>
       </c>
       <c r="D59" t="n">
-        <v>1.77209200096712</v>
+        <v>1.620744891954844</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.94101570430358</v>
+        <v>31.95908415617954</v>
       </c>
       <c r="D60" t="n">
-        <v>1.950368238254405</v>
+        <v>1.7510379813709</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.02130508326877</v>
+        <v>31.03055757567374</v>
       </c>
       <c r="D61" t="n">
-        <v>1.928411655569395</v>
+        <v>1.571795147213098</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.25447537205964</v>
+        <v>30.0255589033418</v>
       </c>
       <c r="D62" t="n">
-        <v>1.773536900280671</v>
+        <v>1.676390900093309</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.02900112138415</v>
+        <v>29.14781006817417</v>
       </c>
       <c r="D63" t="n">
-        <v>1.689039567959358</v>
+        <v>1.763800655150406</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.90077725812385</v>
+        <v>27.74902484812115</v>
       </c>
       <c r="D64" t="n">
-        <v>1.755511416283493</v>
+        <v>1.565684457004562</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>27.00028467795773</v>
+        <v>27.00225036663967</v>
       </c>
       <c r="D65" t="n">
-        <v>1.780932153298668</v>
+        <v>1.485208029060853</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.87393857870376</v>
+        <v>25.88655075451818</v>
       </c>
       <c r="D66" t="n">
-        <v>1.674492910231208</v>
+        <v>1.946209598775409</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.0113300771454</v>
+        <v>24.96954238854666</v>
       </c>
       <c r="D67" t="n">
-        <v>1.853546944941719</v>
+        <v>1.881024839959622</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>24.25617399954748</v>
+        <v>23.83771297207698</v>
       </c>
       <c r="D68" t="n">
-        <v>1.9568798132939</v>
+        <v>1.803670639707653</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>23.03910483743495</v>
+        <v>22.76950620667383</v>
       </c>
       <c r="D69" t="n">
-        <v>2.033122262713594</v>
+        <v>1.90175509570042</v>
       </c>
     </row>
   </sheetData>
